--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD55692-4133-44D8-BA4F-A7763798C356}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C1894-84C1-4F6A-A2FA-8E1365FC2FB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3690" windowWidth="10340" windowHeight="6510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>111222msd</t>
+  </si>
+  <si>
+    <t>SearchItem</t>
+  </si>
+  <si>
+    <t>Sumsang a50 mobile phone</t>
   </si>
 </sst>
 </file>
@@ -380,14 +386,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -397,6 +403,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -405,7 +414,9 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C1894-84C1-4F6A-A2FA-8E1365FC2FB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB4A4C6-D265-40E1-A4DC-44414645483E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <t>SearchItem</t>
   </si>
   <si>
-    <t>Sumsang a50 mobile phone</t>
+    <t>Sumsang a50s mobile phone</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
